--- a/convt_kg.xlsx
+++ b/convt_kg.xlsx
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02333333333333333</v>
+        <v>0.035</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02333333333333333</v>
+        <v>0.03</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>469.25</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>85.315</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1050.02</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.425</v>
+        <v>87.46000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>4.99</v>
+        <v>1046.65</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>84.46666666666667</v>
+        <v>80.12</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.95</v>
+        <v>485.1</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>83.55</v>
+        <v>79.45999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>1525.24</v>
+        <v>478.23</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>80.47</v>
+        <v>84.25999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>590.7</v>
+        <v>1221.4</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>56.34666666666666</v>
+        <v>81.735</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.72</v>
+        <v>1254.95</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>84.76666666666667</v>
+        <v>82.25</v>
       </c>
       <c r="C12" t="n">
-        <v>1876.71</v>
+        <v>1215.66</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>55.51333333333334</v>
+        <v>35.005</v>
       </c>
       <c r="C13" t="n">
-        <v>1245.88</v>
+        <v>508.75</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>74.58</v>
+        <v>74.47999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>3274.4</v>
+        <v>2195.1</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>80.55666666666667</v>
+        <v>75.47499999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>3488.26</v>
+        <v>2198.48</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>81.55333333333333</v>
+        <v>74.765</v>
       </c>
       <c r="C16" t="n">
-        <v>3607.52</v>
+        <v>2201.16</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>80.455</v>
+        <v>73.735</v>
       </c>
       <c r="C17" t="n">
-        <v>3441.22</v>
+        <v>2165.49</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>31.92</v>
+        <v>71.56</v>
       </c>
       <c r="C18" t="n">
-        <v>926.36</v>
+        <v>1033.55</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>20.58</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>463.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>87.38666666666666</v>
+        <v>85.565</v>
       </c>
       <c r="C20" t="n">
-        <v>1906.78</v>
+        <v>1234.53</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>86.19666666666667</v>
+        <v>79.24000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>1870.77</v>
+        <v>1149.47</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>87.57333333333332</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1869.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>86.31999999999999</v>
+        <v>84.62</v>
       </c>
       <c r="C23" t="n">
-        <v>1872.51</v>
+        <v>1226.03</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>56.71333333333333</v>
+        <v>78.41499999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1247.92</v>
+        <v>1148.87</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>56.06</v>
+        <v>81.065</v>
       </c>
       <c r="C25" t="n">
-        <v>1207.14</v>
+        <v>1176.66</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>57.76666666666667</v>
+        <v>82.25999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>1271.36</v>
+        <v>1206.26</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>57.51</v>
+        <v>83.315</v>
       </c>
       <c r="C27" t="n">
-        <v>1252.47</v>
+        <v>1215.56</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>54.56999999999999</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1200.61</v>
+        <v>1161.42</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>52.35666666666667</v>
+        <v>26.3</v>
       </c>
       <c r="C29" t="n">
-        <v>1169.37</v>
+        <v>392.51</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>25.42333333333333</v>
+        <v>76.095</v>
       </c>
       <c r="C30" t="n">
-        <v>584.26</v>
+        <v>1149.96</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>27.86333333333333</v>
+        <v>80.7</v>
       </c>
       <c r="C31" t="n">
-        <v>646.28</v>
+        <v>1245.7</v>
       </c>
     </row>
     <row r="32">

--- a/convt_kg.xlsx
+++ b/convt_kg.xlsx
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>78.73999999999999</v>
+        <v>10.63</v>
       </c>
       <c r="C5" t="n">
-        <v>469.25</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>85.315</v>
+        <v>77.81</v>
       </c>
       <c r="C6" t="n">
-        <v>1050.02</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>87.46000000000001</v>
+        <v>21.86</v>
       </c>
       <c r="C7" t="n">
-        <v>1046.65</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>80.12</v>
+        <v>57.09</v>
       </c>
       <c r="C8" t="n">
-        <v>485.1</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>79.45999999999999</v>
+        <v>41.3</v>
       </c>
       <c r="C9" t="n">
-        <v>478.23</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>84.25999999999999</v>
+        <v>80.31</v>
       </c>
       <c r="C10" t="n">
-        <v>1221.4</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>81.735</v>
+        <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>1254.95</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>82.25</v>
+        <v>42.31</v>
       </c>
       <c r="C12" t="n">
-        <v>1215.66</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>35.005</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>508.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>74.47999999999999</v>
+        <v>15.57</v>
       </c>
       <c r="C14" t="n">
-        <v>2195.1</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>75.47499999999999</v>
+        <v>25.03</v>
       </c>
       <c r="C15" t="n">
-        <v>2198.48</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>74.765</v>
+        <v>53.15</v>
       </c>
       <c r="C16" t="n">
-        <v>2201.16</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>73.735</v>
+        <v>47.57</v>
       </c>
       <c r="C17" t="n">
-        <v>2165.49</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>71.56</v>
+        <v>53.04</v>
       </c>
       <c r="C18" t="n">
-        <v>1033.55</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>46.22</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>85.565</v>
+        <v>64.42</v>
       </c>
       <c r="C20" t="n">
-        <v>1234.53</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>79.24000000000001</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1149.47</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="22">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>84.62</v>
+        <v>35.22</v>
       </c>
       <c r="C23" t="n">
-        <v>1226.03</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>78.41499999999999</v>
+        <v>66.95</v>
       </c>
       <c r="C24" t="n">
-        <v>1148.87</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>81.065</v>
+        <v>55.13</v>
       </c>
       <c r="C25" t="n">
-        <v>1176.66</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>82.25999999999999</v>
+        <v>25.11</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.26</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>83.315</v>
+        <v>46.65</v>
       </c>
       <c r="C27" t="n">
-        <v>1215.56</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>78.31999999999999</v>
+        <v>24.35</v>
       </c>
       <c r="C28" t="n">
-        <v>1161.42</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>392.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>76.095</v>
+        <v>32.79</v>
       </c>
       <c r="C30" t="n">
-        <v>1149.96</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>80.7</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1245.7</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="32">

--- a/convt_kg.xlsx
+++ b/convt_kg.xlsx
@@ -491,7 +491,7 @@
         <v>10.63</v>
       </c>
       <c r="C5" t="n">
-        <v>2.05</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>77.81</v>
       </c>
       <c r="C6" t="n">
-        <v>16.37</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>21.86</v>
       </c>
       <c r="C7" t="n">
-        <v>4.26</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>57.09</v>
       </c>
       <c r="C8" t="n">
-        <v>11.74</v>
+        <v>23.48</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>41.3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.460000000000001</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>80.31</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>18.79</v>
+        <v>37.58</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>42.31</v>
       </c>
       <c r="C12" t="n">
-        <v>10.24</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="13">
@@ -590,7 +590,7 @@
         <v>15.57</v>
       </c>
       <c r="C14" t="n">
-        <v>6.73</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>25.03</v>
       </c>
       <c r="C15" t="n">
-        <v>12.39</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>53.15</v>
       </c>
       <c r="C16" t="n">
-        <v>16.6</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>47.57</v>
       </c>
       <c r="C17" t="n">
-        <v>14.26</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>53.04</v>
       </c>
       <c r="C18" t="n">
-        <v>15.43</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>46.22</v>
       </c>
       <c r="C19" t="n">
-        <v>13.84</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>64.42</v>
       </c>
       <c r="C20" t="n">
-        <v>20.59</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>13.9</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="22">
@@ -689,7 +689,7 @@
         <v>35.22</v>
       </c>
       <c r="C23" t="n">
-        <v>7.62</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>66.95</v>
       </c>
       <c r="C24" t="n">
-        <v>16.9</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>55.13</v>
       </c>
       <c r="C25" t="n">
-        <v>13.78</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>25.11</v>
       </c>
       <c r="C26" t="n">
-        <v>6.21</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>46.65</v>
       </c>
       <c r="C27" t="n">
-        <v>11.78</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>24.35</v>
       </c>
       <c r="C28" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29">
@@ -766,7 +766,7 @@
         <v>32.79</v>
       </c>
       <c r="C30" t="n">
-        <v>8.789999999999999</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>67.34999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>18.36</v>
+        <v>36.72</v>
       </c>
     </row>
     <row r="32">

--- a/convt_kg.xlsx
+++ b/convt_kg.xlsx
@@ -491,7 +491,7 @@
         <v>10.63</v>
       </c>
       <c r="C5" t="n">
-        <v>4.1</v>
+        <v>6.149999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>77.81</v>
       </c>
       <c r="C6" t="n">
-        <v>32.74</v>
+        <v>49.11</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>21.86</v>
       </c>
       <c r="C7" t="n">
-        <v>8.52</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>57.09</v>
       </c>
       <c r="C8" t="n">
-        <v>23.48</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>41.3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.92</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>80.31</v>
       </c>
       <c r="C10" t="n">
-        <v>35.2</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>37.58</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>42.31</v>
       </c>
       <c r="C12" t="n">
-        <v>20.48</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="13">
@@ -590,7 +590,7 @@
         <v>15.57</v>
       </c>
       <c r="C14" t="n">
-        <v>13.46</v>
+        <v>20.19</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>25.03</v>
       </c>
       <c r="C15" t="n">
-        <v>24.78</v>
+        <v>37.17</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>53.15</v>
       </c>
       <c r="C16" t="n">
-        <v>33.2</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>47.57</v>
       </c>
       <c r="C17" t="n">
-        <v>28.52</v>
+        <v>42.78</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>53.04</v>
       </c>
       <c r="C18" t="n">
-        <v>30.86</v>
+        <v>46.29</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>46.22</v>
       </c>
       <c r="C19" t="n">
-        <v>27.68</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>64.42</v>
       </c>
       <c r="C20" t="n">
-        <v>41.18</v>
+        <v>61.77</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>66.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>27.8</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="22">
@@ -689,7 +689,7 @@
         <v>35.22</v>
       </c>
       <c r="C23" t="n">
-        <v>15.24</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>66.95</v>
       </c>
       <c r="C24" t="n">
-        <v>33.8</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>55.13</v>
       </c>
       <c r="C25" t="n">
-        <v>27.56</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>25.11</v>
       </c>
       <c r="C26" t="n">
-        <v>12.42</v>
+        <v>18.63</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>46.65</v>
       </c>
       <c r="C27" t="n">
-        <v>23.56</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>24.35</v>
       </c>
       <c r="C28" t="n">
-        <v>12.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="29">
@@ -766,7 +766,7 @@
         <v>32.79</v>
       </c>
       <c r="C30" t="n">
-        <v>17.58</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>67.34999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>36.72</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="32">
